--- a/data/trans_orig/IPAQ_MET-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_MET-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC9422F5-585D-4FD4-8E21-6795849466E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{669236EB-2960-4FC5-8F5E-6BC568D22881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1CFB89C1-372D-4762-A0FA-752DC7755AF5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59CA3208-104D-4D78-B702-570D5E92A12C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="276">
   <si>
     <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -197,7 +197,7 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -209,10 +209,10 @@
     <t>11,18%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
   </si>
   <si>
     <t>2,96%</t>
@@ -221,490 +221,496 @@
     <t>2,07%</t>
   </si>
   <si>
-    <t>4,09%</t>
+    <t>4,11%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>42,67%</t>
   </si>
   <si>
-    <t>38,96%</t>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
   </si>
   <si>
     <t>46,04%</t>
   </si>
   <si>
-    <t>39,39%</t>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
   </si>
   <si>
     <t>36,04%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
   </si>
   <si>
     <t>24,81%</t>
@@ -1272,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDB78CD-E3C2-42F4-B211-15023E420897}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2823C0C-86CF-4579-9054-46873C4F783D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1650,7 +1656,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
@@ -1854,7 +1860,7 @@
         <v>1649</v>
       </c>
       <c r="D13" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -2164,7 +2170,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
@@ -2368,7 +2374,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -2431,7 +2437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5FF990-6C7C-4D97-8BC0-581580EF07E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D8DF87-4768-4DF7-8F25-0E08542D46D9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3590,7 +3596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB09594-7FE6-4A5B-932B-C22C8A46213E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7142D4F1-EA5C-4C30-80B9-25A815ADA04B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4040,10 +4046,10 @@
         <v>86</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M10" s="7">
         <v>413</v>
@@ -4052,13 +4058,13 @@
         <v>431503</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4079,13 @@
         <v>1079279</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H11" s="7">
         <v>955</v>
@@ -4088,13 +4094,13 @@
         <v>987939</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M11" s="7">
         <v>1971</v>
@@ -4103,13 +4109,13 @@
         <v>2067219</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4130,13 @@
         <v>694212</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H12" s="7">
         <v>827</v>
@@ -4139,13 +4145,13 @@
         <v>871751</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M12" s="7">
         <v>1476</v>
@@ -4154,13 +4160,13 @@
         <v>1565963</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,7 +4240,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4264,7 +4270,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4285,13 @@
         <v>85383</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H15" s="7">
         <v>33</v>
@@ -4294,13 +4300,13 @@
         <v>35847</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M15" s="7">
         <v>111</v>
@@ -4309,13 +4315,13 @@
         <v>121231</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,10 +4336,10 @@
         <v>297021</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>122</v>
@@ -4396,13 +4402,13 @@
         <v>188230</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M17" s="7">
         <v>337</v>
@@ -4411,13 +4417,13 @@
         <v>352712</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,13 +4542,13 @@
         <v>472629</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>189</v>
@@ -4551,13 +4557,13 @@
         <v>193948</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>635</v>
@@ -4566,13 +4572,13 @@
         <v>666577</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4593,13 @@
         <v>1698168</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H21" s="7">
         <v>1626</v>
@@ -4602,13 +4608,13 @@
         <v>1704784</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M21" s="7">
         <v>3234</v>
@@ -4617,13 +4623,13 @@
         <v>3402951</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4644,13 @@
         <v>1206821</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H22" s="7">
         <v>1511</v>
@@ -4653,13 +4659,13 @@
         <v>1633369</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M22" s="7">
         <v>2672</v>
@@ -4668,13 +4674,13 @@
         <v>2840190</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,7 +4755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8501908-147F-48F1-9DD3-CA621F971547}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BE4E08-BA02-4028-8807-4FA21FFE6A81}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4766,7 +4772,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4879,7 +4885,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4894,7 +4900,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4924,13 +4930,13 @@
         <v>78716</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>117</v>
@@ -4939,13 +4945,13 @@
         <v>69616</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>204</v>
@@ -4954,13 +4960,13 @@
         <v>148333</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4981,13 @@
         <v>221737</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>478</v>
@@ -4990,13 +4996,13 @@
         <v>284522</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M6" s="7">
         <v>771</v>
@@ -5005,13 +5011,13 @@
         <v>506259</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5032,13 @@
         <v>241180</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>832</v>
@@ -5041,13 +5047,13 @@
         <v>481815</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>1143</v>
@@ -5056,13 +5062,13 @@
         <v>722995</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,7 +5157,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5166,7 +5172,7 @@
         <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5187,13 @@
         <v>593754</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>585</v>
@@ -5196,13 +5202,13 @@
         <v>506098</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>1122</v>
@@ -5211,13 +5217,13 @@
         <v>1099852</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5238,13 @@
         <v>1002940</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>1432</v>
@@ -5247,13 +5253,13 @@
         <v>1038531</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>2355</v>
@@ -5262,13 +5268,13 @@
         <v>2041471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,13 +5289,13 @@
         <v>565328</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H12" s="7">
         <v>904</v>
@@ -5298,13 +5304,13 @@
         <v>704892</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M12" s="7">
         <v>1436</v>
@@ -5313,13 +5319,13 @@
         <v>1270220</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,7 +5399,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5408,7 +5414,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5423,7 +5429,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5444,13 @@
         <v>216557</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="H15" s="7">
         <v>262</v>
@@ -5453,13 +5459,13 @@
         <v>177122</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M15" s="7">
         <v>488</v>
@@ -5468,13 +5474,13 @@
         <v>393679</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5495,13 @@
         <v>339067</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H16" s="7">
         <v>515</v>
@@ -5504,13 +5510,13 @@
         <v>367704</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>853</v>
@@ -5519,13 +5525,13 @@
         <v>706771</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,13 +5546,13 @@
         <v>117415</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>227</v>
@@ -5555,13 +5561,13 @@
         <v>169060</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>344</v>
@@ -5570,13 +5576,13 @@
         <v>286476</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,7 +5671,7 @@
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5680,7 +5686,7 @@
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5701,13 @@
         <v>889027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H20" s="7">
         <v>964</v>
@@ -5710,13 +5716,13 @@
         <v>752836</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>1814</v>
@@ -5725,13 +5731,13 @@
         <v>1641863</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,13 +5752,13 @@
         <v>1563744</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H21" s="7">
         <v>2425</v>
@@ -5761,13 +5767,13 @@
         <v>1690757</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M21" s="7">
         <v>3979</v>
@@ -5776,13 +5782,13 @@
         <v>3254500</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5803,13 @@
         <v>923923</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>1963</v>
@@ -5812,13 +5818,13 @@
         <v>1355767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>2923</v>
@@ -5827,13 +5833,13 @@
         <v>2279690</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IPAQ_MET-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_MET-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{669236EB-2960-4FC5-8F5E-6BC568D22881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{995D608B-D231-4119-A6C4-7C20D4AA2591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59CA3208-104D-4D78-B702-570D5E92A12C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C996004D-B469-42C9-B7D1-B06C084AAC40}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="274">
   <si>
     <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -209,163 +209,166 @@
     <t>11,18%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>42,67%</t>
   </si>
   <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
   </si>
   <si>
     <t>39,39%</t>
   </si>
   <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
   </si>
   <si>
     <t>40,8%</t>
   </si>
   <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
   </si>
   <si>
     <t>46,15%</t>
   </si>
   <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
   </si>
   <si>
     <t>57,65%</t>
   </si>
   <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
     <t>54,34%</t>
   </si>
   <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
     <t>49,69%</t>
   </si>
   <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
   </si>
   <si>
     <t>50,86%</t>
   </si>
   <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
   </si>
   <si>
     <t>33,43%</t>
   </si>
   <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
   </si>
   <si>
     <t>43,84%</t>
   </si>
   <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -377,79 +380,79 @@
     <t>15,61%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
   </si>
   <si>
     <t>11,06%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
   </si>
   <si>
     <t>54,31%</t>
   </si>
   <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
   </si>
   <si>
     <t>59,19%</t>
   </si>
   <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
   </si>
   <si>
     <t>56,76%</t>
   </si>
   <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
   </si>
   <si>
     <t>30,08%</t>
   </si>
   <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
   </si>
   <si>
     <t>34,28%</t>
   </si>
   <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
   </si>
   <si>
     <t>32,18%</t>
   </si>
   <si>
-    <t>29,25%</t>
+    <t>29,24%</t>
   </si>
   <si>
     <t>35,21%</t>
@@ -458,82 +461,76 @@
     <t>13,99%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
+    <t>6,26%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
   </si>
   <si>
     <t>50,28%</t>
   </si>
   <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
   </si>
   <si>
     <t>48,27%</t>
   </si>
   <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
   </si>
   <si>
     <t>49,25%</t>
   </si>
   <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
+    <t>47,97%</t>
   </si>
   <si>
     <t>35,73%</t>
   </si>
   <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
   </si>
   <si>
     <t>46,24%</t>
   </si>
   <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
   </si>
   <si>
     <t>41,1%</t>
   </si>
   <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
   </si>
   <si>
     <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
@@ -548,76 +545,82 @@
     <t>14,53%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>12,36%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
   </si>
   <si>
     <t>40,94%</t>
   </si>
   <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
   </si>
   <si>
     <t>34,04%</t>
   </si>
   <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
   </si>
   <si>
     <t>36,75%</t>
   </si>
   <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
   </si>
   <si>
     <t>44,53%</t>
   </si>
   <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
   </si>
   <si>
     <t>57,64%</t>
   </si>
   <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
   </si>
   <si>
     <t>52,48%</t>
   </si>
   <si>
-    <t>50,01%</t>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
   </si>
   <si>
     <t>0,07%</t>
@@ -629,160 +632,157 @@
     <t>27,46%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
   </si>
   <si>
     <t>24,93%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
   </si>
   <si>
     <t>46,39%</t>
   </si>
   <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
   </si>
   <si>
     <t>46,17%</t>
   </si>
   <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
   </si>
   <si>
     <t>46,28%</t>
   </si>
   <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
   </si>
   <si>
     <t>26,15%</t>
   </si>
   <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
   </si>
   <si>
     <t>31,34%</t>
   </si>
   <si>
-    <t>26,48%</t>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
   </si>
   <si>
     <t>28,79%</t>
   </si>
   <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>28,39%</t>
   </si>
   <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>26,26%</t>
   </si>
   <si>
     <t>50,38%</t>
   </si>
   <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
   </si>
   <si>
     <t>51,51%</t>
   </si>
   <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
   </si>
   <si>
     <t>50,96%</t>
   </si>
   <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
   </si>
   <si>
     <t>17,45%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
   </si>
   <si>
     <t>23,68%</t>
   </si>
   <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
   </si>
   <si>
     <t>20,66%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
   </si>
   <si>
     <t>0,02%</t>
@@ -791,82 +791,76 @@
     <t>26,33%</t>
   </si>
   <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
+    <t>24,33%</t>
   </si>
   <si>
     <t>19,81%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
   </si>
   <si>
     <t>46,31%</t>
   </si>
   <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
+    <t>44,48%</t>
   </si>
   <si>
     <t>44,5%</t>
   </si>
   <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
   </si>
   <si>
     <t>45,35%</t>
   </si>
   <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
   </si>
   <si>
     <t>35,68%</t>
   </si>
   <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
   </si>
   <si>
     <t>31,77%</t>
   </si>
   <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2823C0C-86CF-4579-9054-46873C4F783D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CDCD85-4E15-4250-A118-663E2A754788}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1656,7 +1650,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
@@ -1860,7 +1854,7 @@
         <v>1649</v>
       </c>
       <c r="D13" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -2170,7 +2164,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
@@ -2200,7 +2194,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>11</v>
@@ -2374,7 +2368,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -2404,7 +2398,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -2437,7 +2431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D8DF87-4768-4DF7-8F25-0E08542D46D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B11B15-75CE-4AEB-A3FF-646E54E37FD9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3596,7 +3590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7142D4F1-EA5C-4C30-80B9-25A815ADA04B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F949ABF4-879A-4445-A457-C37F4140AFFA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4046,10 +4040,10 @@
         <v>86</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M10" s="7">
         <v>413</v>
@@ -4058,13 +4052,13 @@
         <v>431503</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4073,13 @@
         <v>1079279</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H11" s="7">
         <v>955</v>
@@ -4094,13 +4088,13 @@
         <v>987939</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M11" s="7">
         <v>1971</v>
@@ -4109,13 +4103,13 @@
         <v>2067219</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4124,13 @@
         <v>694212</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H12" s="7">
         <v>827</v>
@@ -4145,13 +4139,13 @@
         <v>871751</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M12" s="7">
         <v>1476</v>
@@ -4160,13 +4154,13 @@
         <v>1565963</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,7 +4234,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4270,7 +4264,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4279,13 @@
         <v>85383</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H15" s="7">
         <v>33</v>
@@ -4300,13 +4294,13 @@
         <v>35847</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M15" s="7">
         <v>111</v>
@@ -4315,13 +4309,13 @@
         <v>121231</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4330,13 @@
         <v>297021</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H16" s="7">
         <v>310</v>
@@ -4351,13 +4345,13 @@
         <v>325063</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M16" s="7">
         <v>579</v>
@@ -4366,13 +4360,13 @@
         <v>622083</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4381,13 @@
         <v>164482</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H17" s="7">
         <v>183</v>
@@ -4402,13 +4396,13 @@
         <v>188230</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>337</v>
@@ -4417,13 +4411,13 @@
         <v>352712</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4536,13 @@
         <v>472629</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>189</v>
@@ -4557,10 +4551,10 @@
         <v>193948</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>143</v>
@@ -4629,7 +4623,7 @@
         <v>154</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4638,13 @@
         <v>1206821</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H22" s="7">
         <v>1511</v>
@@ -4659,13 +4653,13 @@
         <v>1633369</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M22" s="7">
         <v>2672</v>
@@ -4674,13 +4668,13 @@
         <v>2840190</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,7 +4749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BE4E08-BA02-4028-8807-4FA21FFE6A81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BE8930-545B-4231-B0B0-7860000412B7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4772,7 +4766,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4885,22 +4879,22 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4930,13 +4924,13 @@
         <v>78716</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>117</v>
@@ -4945,13 +4939,13 @@
         <v>69616</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>204</v>
@@ -4960,10 +4954,10 @@
         <v>148333</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>175</v>
@@ -5068,7 +5062,7 @@
         <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,7 +5151,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5172,7 +5166,7 @@
         <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5181,13 @@
         <v>593754</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>585</v>
@@ -5202,13 +5196,13 @@
         <v>506098</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>1122</v>
@@ -5217,13 +5211,13 @@
         <v>1099852</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5232,13 @@
         <v>1002940</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>1432</v>
@@ -5253,13 +5247,13 @@
         <v>1038531</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>2355</v>
@@ -5268,13 +5262,13 @@
         <v>2041471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5283,13 @@
         <v>565328</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H12" s="7">
         <v>904</v>
@@ -5304,13 +5298,13 @@
         <v>704892</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="M12" s="7">
         <v>1436</v>
@@ -5319,13 +5313,13 @@
         <v>1270220</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,7 +5346,7 @@
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -5399,7 +5393,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5414,7 +5408,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5429,7 +5423,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5438,13 @@
         <v>216557</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H15" s="7">
         <v>262</v>
@@ -5459,13 +5453,13 @@
         <v>177122</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M15" s="7">
         <v>488</v>
@@ -5474,13 +5468,13 @@
         <v>393679</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,7 +5665,7 @@
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5698,7 +5692,7 @@
         <v>850</v>
       </c>
       <c r="D20" s="7">
-        <v>889027</v>
+        <v>889028</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>249</v>
@@ -5707,7 +5701,7 @@
         <v>250</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>964</v>
@@ -5716,28 +5710,28 @@
         <v>752836</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>1814</v>
       </c>
       <c r="N20" s="7">
-        <v>1641863</v>
+        <v>1641864</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5746,13 @@
         <v>1563744</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="H21" s="7">
         <v>2425</v>
@@ -5767,28 +5761,28 @@
         <v>1690757</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M21" s="7">
         <v>3979</v>
       </c>
       <c r="N21" s="7">
-        <v>3254500</v>
+        <v>3254501</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5797,13 @@
         <v>923923</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>1963</v>
@@ -5818,13 +5812,13 @@
         <v>1355767</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>2923</v>
@@ -5833,13 +5827,13 @@
         <v>2279690</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,7 +5845,7 @@
         <v>3364</v>
       </c>
       <c r="D23" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -5881,7 +5875,7 @@
         <v>8716</v>
       </c>
       <c r="N23" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IPAQ_MET-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_MET-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{995D608B-D231-4119-A6C4-7C20D4AA2591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE01FBF0-C3A3-4B86-85AA-B09B47F3D49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C996004D-B469-42C9-B7D1-B06C084AAC40}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{965AF99F-365D-49A1-B82A-D9453E1E2422}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="278">
   <si>
     <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -542,85 +542,82 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
   </si>
   <si>
     <t>36,75%</t>
   </si>
   <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
   </si>
   <si>
     <t>0,07%</t>
@@ -629,238 +626,253 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CDCD85-4E15-4250-A118-663E2A754788}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB8801C-AE90-43D8-8C78-8B4255847512}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1423,7 +1435,7 @@
         <v>2329</v>
       </c>
       <c r="N4" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1627,7 +1639,7 @@
         <v>2329</v>
       </c>
       <c r="N8" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>13</v>
@@ -1650,7 +1662,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
@@ -1854,7 +1866,7 @@
         <v>1649</v>
       </c>
       <c r="D13" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -2164,7 +2176,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
@@ -2179,7 +2191,7 @@
         <v>3297</v>
       </c>
       <c r="I19" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
@@ -2194,7 +2206,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>11</v>
@@ -2368,7 +2380,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -2383,7 +2395,7 @@
         <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -2398,7 +2410,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -2431,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B11B15-75CE-4AEB-A3FF-646E54E37FD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EBD9E9-9424-4E81-89BB-20D15D84E28A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2567,7 +2579,7 @@
         <v>1247</v>
       </c>
       <c r="I4" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -2771,7 +2783,7 @@
         <v>1247</v>
       </c>
       <c r="I8" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>13</v>
@@ -3096,7 +3108,7 @@
         <v>850</v>
       </c>
       <c r="N14" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>11</v>
@@ -3300,7 +3312,7 @@
         <v>850</v>
       </c>
       <c r="N18" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -3590,7 +3602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F949ABF4-879A-4445-A457-C37F4140AFFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5810544-187B-4072-A44C-E3E7E3CCE051}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4357,7 +4369,7 @@
         <v>579</v>
       </c>
       <c r="N16" s="7">
-        <v>622083</v>
+        <v>622084</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>127</v>
@@ -4459,7 +4471,7 @@
         <v>1027</v>
       </c>
       <c r="N18" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -4749,7 +4761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BE8930-545B-4231-B0B0-7860000412B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A1B684-2FFC-4AD9-A693-23F96924913D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4921,7 +4933,7 @@
         <v>87</v>
       </c>
       <c r="D5" s="7">
-        <v>78716</v>
+        <v>76426</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>167</v>
@@ -4936,7 +4948,7 @@
         <v>117</v>
       </c>
       <c r="I5" s="7">
-        <v>69616</v>
+        <v>64395</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>170</v>
@@ -4951,7 +4963,7 @@
         <v>204</v>
       </c>
       <c r="N5" s="7">
-        <v>148333</v>
+        <v>140820</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>173</v>
@@ -4972,7 +4984,7 @@
         <v>293</v>
       </c>
       <c r="D6" s="7">
-        <v>221737</v>
+        <v>210408</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>176</v>
@@ -4987,7 +4999,7 @@
         <v>478</v>
       </c>
       <c r="I6" s="7">
-        <v>284522</v>
+        <v>256968</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>179</v>
@@ -5002,7 +5014,7 @@
         <v>771</v>
       </c>
       <c r="N6" s="7">
-        <v>506259</v>
+        <v>467376</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>182</v>
@@ -5023,7 +5035,7 @@
         <v>311</v>
       </c>
       <c r="D7" s="7">
-        <v>241180</v>
+        <v>228104</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>185</v>
@@ -5038,7 +5050,7 @@
         <v>832</v>
       </c>
       <c r="I7" s="7">
-        <v>481815</v>
+        <v>434145</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>188</v>
@@ -5053,7 +5065,7 @@
         <v>1143</v>
       </c>
       <c r="N7" s="7">
-        <v>722995</v>
+        <v>662249</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>191</v>
@@ -5062,7 +5074,7 @@
         <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,7 +5086,7 @@
         <v>691</v>
       </c>
       <c r="D8" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
@@ -5089,7 +5101,7 @@
         <v>1427</v>
       </c>
       <c r="I8" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>13</v>
@@ -5104,7 +5116,7 @@
         <v>2118</v>
       </c>
       <c r="N8" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>13</v>
@@ -5151,22 +5163,22 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,46 +5190,46 @@
         <v>537</v>
       </c>
       <c r="D10" s="7">
-        <v>593754</v>
+        <v>577877</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>585</v>
       </c>
       <c r="I10" s="7">
-        <v>506098</v>
+        <v>567649</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>1122</v>
       </c>
       <c r="N10" s="7">
-        <v>1099852</v>
+        <v>1145526</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,46 +5241,46 @@
         <v>923</v>
       </c>
       <c r="D11" s="7">
-        <v>1002940</v>
+        <v>1166142</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>1432</v>
       </c>
       <c r="I11" s="7">
-        <v>1038531</v>
+        <v>946194</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>2355</v>
       </c>
       <c r="N11" s="7">
-        <v>2041471</v>
+        <v>2112336</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,46 +5292,46 @@
         <v>532</v>
       </c>
       <c r="D12" s="7">
-        <v>565328</v>
+        <v>546308</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H12" s="7">
         <v>904</v>
       </c>
       <c r="I12" s="7">
-        <v>704892</v>
+        <v>723980</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M12" s="7">
         <v>1436</v>
       </c>
       <c r="N12" s="7">
-        <v>1270220</v>
+        <v>1270288</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,7 +5343,7 @@
         <v>1992</v>
       </c>
       <c r="D13" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -5346,7 +5358,7 @@
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -5361,7 +5373,7 @@
         <v>4913</v>
       </c>
       <c r="N13" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
@@ -5423,7 +5435,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,10 +5447,10 @@
         <v>226</v>
       </c>
       <c r="D15" s="7">
-        <v>216557</v>
+        <v>207021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>224</v>
@@ -5450,31 +5462,31 @@
         <v>262</v>
       </c>
       <c r="I15" s="7">
-        <v>177122</v>
+        <v>163703</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M15" s="7">
         <v>488</v>
       </c>
       <c r="N15" s="7">
-        <v>393679</v>
+        <v>370724</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,46 +5498,46 @@
         <v>338</v>
       </c>
       <c r="D16" s="7">
-        <v>339067</v>
+        <v>329036</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7">
         <v>515</v>
       </c>
       <c r="I16" s="7">
-        <v>367704</v>
+        <v>341033</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>853</v>
       </c>
       <c r="N16" s="7">
-        <v>706771</v>
+        <v>670068</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,46 +5549,46 @@
         <v>117</v>
       </c>
       <c r="D17" s="7">
-        <v>117415</v>
+        <v>110566</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>227</v>
       </c>
       <c r="I17" s="7">
-        <v>169060</v>
+        <v>155728</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>344</v>
       </c>
       <c r="N17" s="7">
-        <v>286476</v>
+        <v>266294</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,7 +5600,7 @@
         <v>681</v>
       </c>
       <c r="D18" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -5603,7 +5615,7 @@
         <v>1004</v>
       </c>
       <c r="I18" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -5618,7 +5630,7 @@
         <v>1685</v>
       </c>
       <c r="N18" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -5665,7 +5677,7 @@
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5680,7 +5692,7 @@
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,46 +5704,46 @@
         <v>850</v>
       </c>
       <c r="D20" s="7">
-        <v>889028</v>
+        <v>861324</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
         <v>964</v>
       </c>
       <c r="I20" s="7">
-        <v>752836</v>
+        <v>795746</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M20" s="7">
         <v>1814</v>
       </c>
       <c r="N20" s="7">
-        <v>1641864</v>
+        <v>1657070</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,46 +5755,46 @@
         <v>1554</v>
       </c>
       <c r="D21" s="7">
-        <v>1563744</v>
+        <v>1705586</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
       <c r="H21" s="7">
         <v>2425</v>
       </c>
       <c r="I21" s="7">
-        <v>1690757</v>
+        <v>1544195</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M21" s="7">
         <v>3979</v>
       </c>
       <c r="N21" s="7">
-        <v>3254501</v>
+        <v>3249781</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,46 +5806,46 @@
         <v>960</v>
       </c>
       <c r="D22" s="7">
-        <v>923923</v>
+        <v>884979</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>1963</v>
       </c>
       <c r="I22" s="7">
-        <v>1355767</v>
+        <v>1313853</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>2923</v>
       </c>
       <c r="N22" s="7">
-        <v>2279690</v>
+        <v>2198832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,7 +5857,7 @@
         <v>3364</v>
       </c>
       <c r="D23" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -5860,7 +5872,7 @@
         <v>5352</v>
       </c>
       <c r="I23" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -5875,7 +5887,7 @@
         <v>8716</v>
       </c>
       <c r="N23" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
